--- a/Tables/aq_hmf_events_stats_50_95.xlsx
+++ b/Tables/aq_hmf_events_stats_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,22 +526,22 @@
         <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>1805</v>
+        <v>280</v>
       </c>
       <c r="H2" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>9.624748929860463</v>
+        <v>24.77118008181129</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1051</v>
+        <v>1250</v>
       </c>
       <c r="C3" t="n">
-        <v>56.91373032114253</v>
+        <v>73.43167747225787</v>
       </c>
       <c r="D3" t="n">
         <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>782</v>
+        <v>246</v>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>11.72269333254256</v>
+        <v>31.46853237716519</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>55</v>
       </c>
       <c r="M3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>25.87615733329644</v>
+        <v>26.5490035304334</v>
       </c>
       <c r="P3" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -630,22 +630,22 @@
         <v>178</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>0.38166578521344</v>
+        <v>10.23647208546816</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532</v>
+        <v>434</v>
       </c>
       <c r="C5" t="n">
-        <v>57.64697635207733</v>
+        <v>32.59195827621431</v>
       </c>
       <c r="D5" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.350338441236243</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>313</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7374614806009383</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="M5" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>54.43477924069917</v>
+        <v>30.1768212257435</v>
       </c>
       <c r="P5" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -734,22 +734,22 @@
         <v>125</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="H6" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>5.247823809691779</v>
+        <v>56.01905434251576</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="K6" t="n">
         <v>21</v>
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>504</v>
       </c>
       <c r="C7" t="n">
-        <v>19.5386948328496</v>
+        <v>25.9008775326157</v>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>0.206857962434616</v>
+        <v>6.506161224087228</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="N7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>16.17367482655095</v>
+        <v>18.6594494061925</v>
       </c>
       <c r="P7" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -838,22 +838,22 @@
         <v>107</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>1897</v>
+        <v>803</v>
       </c>
       <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>265.7065621333277</v>
+      </c>
+      <c r="J8" t="n">
         <v>58</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33.76358905325115</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>21</v>
@@ -890,22 +890,22 @@
         <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>1762</v>
+        <v>319</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>43.50148769828924</v>
+        <v>109.2334432895146</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>21</v>
@@ -933,31 +933,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="C10" t="n">
-        <v>146.2508273548684</v>
+        <v>146.2462551944876</v>
       </c>
       <c r="D10" t="n">
         <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>795</v>
+        <v>117</v>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>32.45139639464396</v>
+        <v>75.9204197480373</v>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
@@ -966,13 +966,13 @@
         <v>41</v>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>24.24733816448209</v>
+        <v>24.24678695101152</v>
       </c>
       <c r="P10" t="n">
         <v>17</v>
@@ -985,31 +985,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3763</v>
+        <v>3662</v>
       </c>
       <c r="C11" t="n">
-        <v>369.313641817512</v>
+        <v>384.0059640823252</v>
       </c>
       <c r="D11" t="n">
         <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>2777</v>
+        <v>619</v>
       </c>
       <c r="H11" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>102.264102988767</v>
+        <v>160.8979398394778</v>
       </c>
       <c r="J11" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K11" t="n">
         <v>21</v>
@@ -1018,16 +1018,432 @@
         <v>49</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>25.6787676182258</v>
+        <v>34.77865856793269</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Northern High Plains</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>852</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.9904348683169</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>107</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.34726458949817</v>
+      </c>
+      <c r="J12" t="n">
+        <v>38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>73</v>
+      </c>
+      <c r="M12" t="n">
+        <v>22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>13.05771621085935</v>
+      </c>
+      <c r="P12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Central South High Plains</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18.13154862003206</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>173</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.42391549231312</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>71</v>
+      </c>
+      <c r="M13" t="n">
+        <v>23</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.604926233949511</v>
+      </c>
+      <c r="P13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Sacramento River Basin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.41920408317075</v>
+      </c>
+      <c r="D14" t="n">
+        <v>74</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.702873958833216</v>
+      </c>
+      <c r="J14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>74</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10.3683425074105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.40623723277568</v>
+      </c>
+      <c r="D15" t="n">
+        <v>178</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.533598126634944</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>178</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>56</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18.84817335067834</v>
+      </c>
+      <c r="P15" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C16" t="n">
+        <v>185.4929576742881</v>
+      </c>
+      <c r="D16" t="n">
+        <v>107</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>356</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>90.53004531281218</v>
+      </c>
+      <c r="J16" t="n">
+        <v>49</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>107</v>
+      </c>
+      <c r="M16" t="n">
+        <v>61</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>64.25695066974265</v>
+      </c>
+      <c r="P16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Coastal Lowlands</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C17" t="n">
+        <v>270.5571746167853</v>
+      </c>
+      <c r="D17" t="n">
+        <v>51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>447</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>175.1765168205156</v>
+      </c>
+      <c r="J17" t="n">
+        <v>65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>51</v>
+      </c>
+      <c r="M17" t="n">
+        <v>28</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>51.5275722369153</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Arizona Alluvial</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>253</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.60199407758478</v>
+      </c>
+      <c r="D18" t="n">
+        <v>325</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4046635953480959</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21</v>
+      </c>
+      <c r="L18" t="n">
+        <v>325</v>
+      </c>
+      <c r="M18" t="n">
+        <v>31</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>24.66664378050177</v>
+      </c>
+      <c r="P18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi Embayment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3103</v>
+      </c>
+      <c r="C19" t="n">
+        <v>290.9345237414031</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>592</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" t="n">
+        <v>163.5822735973014</v>
+      </c>
+      <c r="J19" t="n">
+        <v>56</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21</v>
+      </c>
+      <c r="L19" t="n">
+        <v>55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>48</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>66.96693065572966</v>
+      </c>
+      <c r="P19" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
